--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_16.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A873C2B-5A9F-4244-90FC-BE8EE75E70A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F62BF-06F7-DA48-965A-7EB4F76A4169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C0D48B71-43BE-AE44-870F-8D82B4E7A991}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>SC38758</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51660943-3295-C843-9EC3-3E0147E0F4A2}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +501,7 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +559,11 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -615,8 +621,11 @@
       <c r="S2" t="s">
         <v>22</v>
       </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -672,6 +681,9 @@
         <v>21</v>
       </c>
       <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>22</v>
       </c>
     </row>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_16.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F62BF-06F7-DA48-965A-7EB4F76A4169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573AC64B-5978-5646-B73A-21CAC31D0374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{C0D48B71-43BE-AE44-870F-8D82B4E7A991}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -89,9 +89,6 @@
     <t>INACTIVE_F</t>
   </si>
   <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
   </si>
   <si>
     <t>SC38758</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -489,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51660943-3295-C843-9EC3-3E0147E0F4A2}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -501,7 +495,7 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,135 +550,117 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>34</v>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
       <c r="R3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
